--- a/target/test-classes/formsautomation.xlsx
+++ b/target/test-classes/formsautomation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
   <si>
     <t>No</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>14-01-2026 16:33:43</t>
+  </si>
+  <si>
+    <t>20-01-2026 15:20:22</t>
   </si>
 </sst>
 </file>
@@ -1888,7 +1891,7 @@
         <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/formsautomation.xlsx
+++ b/target/test-classes/formsautomation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
   <si>
     <t>No</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>20-01-2026 15:20:22</t>
+  </si>
+  <si>
+    <t>13-02-2026 21:38:49</t>
   </si>
 </sst>
 </file>
@@ -1544,7 +1547,9 @@
       <c r="D10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E10"/>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1891,7 +1896,7 @@
         <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
